--- a/data/adjust_result.xlsx
+++ b/data/adjust_result.xlsx
@@ -369,12 +369,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>feature_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>model_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>feature_name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -406,12 +406,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>LassoRegression</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -425,7 +425,7 @@
         <v>0.4547601820647919</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2030839920043945</v>
+        <v>0.06713199615478516</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -434,19 +434,19 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20190810_193828</t>
+          <t>20190811_213040</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>LinearRegression</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -458,7 +458,7 @@
         <v>0.8720729212421983</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2812216281890869</v>
+        <v>0.07387661933898926</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -467,19 +467,19 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20190810_193828</t>
+          <t>20190811_213040</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>RidgeRegression</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -492,7 +492,7 @@
         <v>0.8720598131590925</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2030906677246094</v>
+        <v>0.05737566947937012</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -501,19 +501,19 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20190810_193828</t>
+          <t>20190811_213040</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>LassoRegression</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -527,7 +527,7 @@
         <v>0.4547601820647919</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1718308925628662</v>
+        <v>0.05102252960205078</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -536,19 +536,19 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20190810_193828</t>
+          <t>20190811_213040</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>LinearRegression</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -560,7 +560,7 @@
         <v>0.8379574947454904</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1561987400054932</v>
+        <v>0.05480170249938965</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -569,19 +569,19 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20190810_193828</t>
+          <t>20190811_213040</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>RidgeRegression</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -594,7 +594,7 @@
         <v>0.8380562168498316</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1562151908874512</v>
+        <v>0.04542136192321777</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -603,19 +603,19 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20190810_193828</t>
+          <t>20190811_213040</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>LassoRegression</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -629,7 +629,7 @@
         <v>0.4547601820647919</v>
       </c>
       <c r="E8" t="n">
-        <v>0.140596866607666</v>
+        <v>0.04902553558349609</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -638,19 +638,19 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20190810_193828</t>
+          <t>20190811_213040</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>LinearRegression</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -662,7 +662,7 @@
         <v>0.8240287736141187</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1093986034393311</v>
+        <v>0.04069352149963379</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -671,19 +671,19 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20190810_193828</t>
+          <t>20190811_213040</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>RidgeRegression</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -696,7 +696,7 @@
         <v>0.8240776675707554</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1405932903289795</v>
+        <v>0.04233741760253906</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20190810_193828</t>
+          <t>20190811_213040</t>
         </is>
       </c>
     </row>

--- a/data/adjust_result.xlsx
+++ b/data/adjust_result.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -406,102 +406,113 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>DecisionTreeRegressor</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DecisionTreeRegressor(criterion='mse', max_depth=None, max_features=None,
+                      max_leaf_nodes=None, min_impurity_decrease=0.0,
+                      min_impurity_split=None, min_samples_leaf=66,
+                      min_samples_split=2, min_weight_fraction_leaf=0.0,
+                      presort=False, random_state=None, splitter='best')</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.804539288142025</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.966431856155396</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>{"min_samples_leaf": 61}</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20190813_115550</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GradientBoostingRegressor</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>GradientBoostingRegressor(alpha=0.9, criterion='friedman_mse', init=None,
+                          learning_rate=0.05, loss='ls', max_depth=4,
+                          max_features=0.7, max_leaf_nodes=None,
+                          min_impurity_decrease=0.0, min_impurity_split=None,
+                          min_samples_leaf=5, min_samples_split=2,
+                          min_weight_fraction_leaf=0.0, n_estimators=500,
+                          n_iter_no_change=5, presort='auto', random_state=None,
+                          subsample=0.7, tol=0.0001, validation_fraction=0.1,
+                          verbose=0, warm_start=False)</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8441657438048312</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34.66785526275635</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>{"learning_rate": 0.02, "max_depth": 5, "max_features": 0.7, "n_estimators": 500, "subsample": 0.7}</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>20190813_115738</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>LassoRegression</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Lasso(alpha=0.5, copy_X=True, fit_intercept=True, max_iter=1000,
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Lasso(alpha=0.1, copy_X=True, fit_intercept=True, max_iter=1000,
       normalize=False, positive=False, precompute=False, random_state=None,
       selection='cyclic', tol=0.0001, warm_start=False)</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>0.4547601820647919</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.06713199615478516</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>{"alpha": 0.5}</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>20190811_213040</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>LinearRegression</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>LinearRegression(copy_X=True, fit_intercept=True, n_jobs=None, normalize=True)</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8720729212421983</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.07387661933898926</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>{"normalize": true}</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>20190811_213040</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>RidgeRegression</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Ridge(alpha=2, copy_X=True, fit_intercept=True, max_iter=None, normalize=False,
-      random_state=None, solver='auto', tol=0.001)</t>
-        </is>
-      </c>
       <c r="D4" t="n">
-        <v>0.8720598131590925</v>
+        <v>0.818209623920554</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05737566947937012</v>
+        <v>1.685636043548584</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>{"alpha": 0.5}</t>
+          <t>{"alpha": 0.1}</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20190811_213040</t>
+          <t>20190813_115550</t>
         </is>
       </c>
     </row>
@@ -513,199 +524,388 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>LinearRegression</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LinearRegression(copy_X=True, fit_intercept=True, n_jobs=None, normalize=True)</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8379574947454904</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.07808136940002441</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>{"normalize": false}</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>20190813_115550</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>RandomForestRegressor</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>RandomForestRegressor(bootstrap=True, criterion='mse', max_depth=6,
+                      max_features=0.6, max_leaf_nodes=None,
+                      min_impurity_decrease=0.0, min_impurity_split=None,
+                      min_samples_leaf=5, min_samples_split=2,
+                      min_weight_fraction_leaf=0.0, n_estimators=400,
+                      n_jobs=None, oob_score=False, random_state=None,
+                      verbose=0, warm_start=False)</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8375673925432833</v>
+      </c>
+      <c r="E6" t="n">
+        <v>604.3568260669708</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>{"max_depth": 6, "max_features": 0.6, "n_estimators": 400}</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>20190813_122835</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RidgeRegression</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ridge(alpha=28.3, copy_X=True, fit_intercept=True, max_iter=None,
+      normalize=False, random_state=None, solver='auto', tol=0.001)</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8385942144238213</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.524763584136963</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>{"alpha": 30.8}</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>20190813_115550</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SVR(C=0.2, cache_size=200, coef0=0.0, degree=3, epsilon=0.1, gamma='scale',
+    kernel='linear', max_iter=-1, shrinking=True, tol=0.001, verbose=False)</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8374941035427399</v>
+      </c>
+      <c r="E8" t="n">
+        <v>139.533833026886</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>{"C": 0.1, "kernel": "linear"}</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>20190813_123413</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DecisionTreeRegressor</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DecisionTreeRegressor(criterion='mse', max_depth=None, max_features=None,
+                      max_leaf_nodes=None, min_impurity_decrease=0.0,
+                      min_impurity_split=None, min_samples_leaf=66,
+                      min_samples_split=2, min_weight_fraction_leaf=0.0,
+                      presort=False, random_state=None, splitter='best')</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7979565481258788</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.732787847518921</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>{"min_samples_leaf": 66}</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>20190813_115550</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>GradientBoostingRegressor</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>GradientBoostingRegressor(alpha=0.9, criterion='friedman_mse', init=None,
+                          learning_rate=0.05, loss='ls', max_depth=4,
+                          max_features=0.7, max_leaf_nodes=None,
+                          min_impurity_decrease=0.0, min_impurity_split=None,
+                          min_samples_leaf=5, min_samples_split=2,
+                          min_weight_fraction_leaf=0.0, n_estimators=500,
+                          n_iter_no_change=5, presort='auto', random_state=None,
+                          subsample=0.7, tol=0.0001, validation_fraction=0.1,
+                          verbose=0, warm_start=False)</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8296214093808338</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20.78435873985291</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>{"learning_rate": 0.05, "max_depth": 4, "max_features": 0.7, "n_estimators": 500, "subsample": 0.7}</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>20190813_115738</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>LassoRegression</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Lasso(alpha=0.5, copy_X=True, fit_intercept=True, max_iter=1000,
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Lasso(alpha=0.1, copy_X=True, fit_intercept=True, max_iter=1000,
       normalize=False, positive=False, precompute=False, random_state=None,
       selection='cyclic', tol=0.0001, warm_start=False)</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>0.4547601820647919</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.05102252960205078</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>{"alpha": 0.5}</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>20190811_213040</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="D11" t="n">
+        <v>0.8077637597963232</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.358280420303345</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>{"alpha": 0.1}</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>20190813_115550</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>LinearRegression</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>LinearRegression(copy_X=True, fit_intercept=True, n_jobs=None, normalize=True)</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>0.8379574947454904</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.05480170249938965</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>{"normalize": false}</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>20190811_213040</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="D12" t="n">
+        <v>0.8240287736141187</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0468287467956543</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>{"normalize": true}</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>20190813_115550</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>RandomForestRegressor</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>RandomForestRegressor(bootstrap=True, criterion='mse', max_depth=6,
+                      max_features=0.6, max_leaf_nodes=None,
+                      min_impurity_decrease=0.0, min_impurity_split=None,
+                      min_samples_leaf=5, min_samples_split=2,
+                      min_weight_fraction_leaf=0.0, n_estimators=400,
+                      n_jobs=None, oob_score=False, random_state=None,
+                      verbose=0, warm_start=False)</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8274447921930014</v>
+      </c>
+      <c r="E13" t="n">
+        <v>399.6429281234741</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>{"max_depth": 6, "max_features": 0.6, "n_estimators": 400}</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>20190813_122835</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>RidgeRegression</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Ridge(alpha=2, copy_X=True, fit_intercept=True, max_iter=None, normalize=False,
-      random_state=None, solver='auto', tol=0.001)</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.8380562168498316</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.04542136192321777</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>{"alpha": 2}</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>20190811_213040</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ridge(alpha=28.3, copy_X=True, fit_intercept=True, max_iter=None,
+      normalize=False, random_state=None, solver='auto', tol=0.001)</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8243420393335967</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.236380815505981</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>{"alpha": 28.3}</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>20190813_115550</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>LassoRegression</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Lasso(alpha=0.5, copy_X=True, fit_intercept=True, max_iter=1000,
-      normalize=False, positive=False, precompute=False, random_state=None,
-      selection='cyclic', tol=0.0001, warm_start=False)</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0.4547601820647919</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.04902553558349609</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>{"alpha": 0.5}</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>20190811_213040</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>LinearRegression</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>LinearRegression(copy_X=True, fit_intercept=True, n_jobs=None, normalize=True)</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.8240287736141187</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.04069352149963379</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>{"normalize": true}</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>20190811_213040</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>RidgeRegression</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Ridge(alpha=2, copy_X=True, fit_intercept=True, max_iter=None, normalize=False,
-      random_state=None, solver='auto', tol=0.001)</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0.8240776675707554</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.04233741760253906</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>{"alpha": 2}</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>20190811_213040</t>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SVR(C=0.2, cache_size=200, coef0=0.0, degree=3, epsilon=0.1, gamma='scale',
+    kernel='linear', max_iter=-1, shrinking=True, tol=0.001, verbose=False)</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8214324814052466</v>
+      </c>
+      <c r="E15" t="n">
+        <v>124.5738387107849</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>{"C": 0.2, "kernel": "linear"}</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>20190813_123413</t>
         </is>
       </c>
     </row>
